--- a/data/surveillance_module/raw/data_labo_sem20_2022.xlsx
+++ b/data/surveillance_module/raw/data_labo_sem20_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl.sharepoint.com/sites/grp-epi-fetchlive-FETCH_Trainers/Shared Documents/Trainers/Cohort_in_progress/Modules/Module_Surveillance/session_4-5/Urgepi_case_study_EN/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl.sharepoint.com/sites/grp-epi-fieldepitraining-Trainersspace/Shared Documents/Trainers space/Module_Surveillance/session_4-5/Urgepi_case_study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_A820B46CC3574A1C1801C06754A11AFC099A30C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE60D096-B65E-4908-93B2-7FFF07FFC060}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_A820B46CC3574A1C1801C06754A11AFC099A30C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9FFB68-3F16-447B-BBDC-8B321F40518C}"/>
   <bookViews>
-    <workbookView xWindow="-12555" yWindow="-14760" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5254,9 +5254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5294,7 +5294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5400,7 +5400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5542,7 +5542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5552,11 +5552,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="C620" sqref="C620"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -29867,15 +29870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C77889CB678334CA24861E6A0BE18F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="78b472f0ff15ad87d4b6ccae74e10d78">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c40ab3e0-64da-4b07-8492-05893ecb74d2" xmlns:ns3="fa21a3bf-0e31-4551-b8ff-9047f5286d1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b31fadf21f7e9fbff64ca8a183a157ad" ns2:_="" ns3:_="">
     <xsd:import namespace="c40ab3e0-64da-4b07-8492-05893ecb74d2"/>
@@ -30092,6 +30086,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30103,15 +30106,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09154B91-AC10-472E-922D-DBA9C9F234BF}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C5CD9E4-3CDB-4CBB-97BF-C486D58CFE6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3F8890-BBD1-431A-B747-54DD910973B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30120,7 +30123,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="cfa3e42b-99f9-4820-950f-cc1c5b3815df"/>
-    <ds:schemaRef ds:uri="c40ab3e0-64da-4b07-8492-05893ecb74d2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>